--- a/natmiOut/OldD7/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ednrb</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8433913281006</v>
+        <v>18.83231666666667</v>
       </c>
       <c r="H2">
-        <v>16.8433913281006</v>
+        <v>56.49695</v>
       </c>
       <c r="I2">
-        <v>0.9601655234215075</v>
+        <v>0.9386336222326693</v>
       </c>
       <c r="J2">
-        <v>0.9601655234215075</v>
+        <v>0.9386336222326694</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.819887681783</v>
+        <v>70.24576333333334</v>
       </c>
       <c r="N2">
-        <v>57.819887681783</v>
+        <v>210.73729</v>
       </c>
       <c r="O2">
-        <v>0.8341067388947159</v>
+        <v>0.8038202726758664</v>
       </c>
       <c r="P2">
-        <v>0.8341067388947159</v>
+        <v>0.8038202726758664</v>
       </c>
       <c r="Q2">
-        <v>973.8829947710946</v>
+        <v>1322.890459585056</v>
       </c>
       <c r="R2">
-        <v>973.8829947710946</v>
+        <v>11906.0141362655</v>
       </c>
       <c r="S2">
-        <v>0.8008805335402516</v>
+        <v>0.7544927341658004</v>
       </c>
       <c r="T2">
-        <v>0.8008805335402516</v>
+        <v>0.7544927341658005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8433913281006</v>
+        <v>18.83231666666667</v>
       </c>
       <c r="H3">
-        <v>16.8433913281006</v>
+        <v>56.49695</v>
       </c>
       <c r="I3">
-        <v>0.9601655234215075</v>
+        <v>0.9386336222326693</v>
       </c>
       <c r="J3">
-        <v>0.9601655234215075</v>
+        <v>0.9386336222326694</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.96543205822685</v>
+        <v>0.152389</v>
       </c>
       <c r="N3">
-        <v>2.96543205822685</v>
+        <v>0.457167</v>
       </c>
       <c r="O3">
-        <v>0.04277917102009091</v>
+        <v>0.001743782994449666</v>
       </c>
       <c r="P3">
-        <v>0.04277917102009091</v>
+        <v>0.001743782994449667</v>
       </c>
       <c r="Q3">
-        <v>49.94793261360964</v>
+        <v>2.869837904516667</v>
       </c>
       <c r="R3">
-        <v>49.94793261360964</v>
+        <v>25.82854114065</v>
       </c>
       <c r="S3">
-        <v>0.04107508513404378</v>
+        <v>0.001636773348468021</v>
       </c>
       <c r="T3">
-        <v>0.04107508513404378</v>
+        <v>0.001636773348468022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8433913281006</v>
+        <v>18.83231666666667</v>
       </c>
       <c r="H4">
-        <v>16.8433913281006</v>
+        <v>56.49695</v>
       </c>
       <c r="I4">
-        <v>0.9601655234215075</v>
+        <v>0.9386336222326693</v>
       </c>
       <c r="J4">
-        <v>0.9601655234215075</v>
+        <v>0.9386336222326694</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.53421094547625</v>
+        <v>3.0875</v>
       </c>
       <c r="N4">
-        <v>8.53421094547625</v>
+        <v>9.262499999999999</v>
       </c>
       <c r="O4">
-        <v>0.1231140900851932</v>
+        <v>0.03533017471971957</v>
       </c>
       <c r="P4">
-        <v>0.1231140900851932</v>
+        <v>0.03533017471971957</v>
       </c>
       <c r="Q4">
-        <v>143.7450546312159</v>
+        <v>58.14477770833334</v>
       </c>
       <c r="R4">
-        <v>143.7450546312159</v>
+        <v>523.3029993749999</v>
       </c>
       <c r="S4">
-        <v>0.1182099047472122</v>
+        <v>0.03316208987128346</v>
       </c>
       <c r="T4">
-        <v>0.1182099047472122</v>
+        <v>0.03316208987128347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.419857296278956</v>
+        <v>18.83231666666667</v>
       </c>
       <c r="H5">
-        <v>0.419857296278956</v>
+        <v>56.49695</v>
       </c>
       <c r="I5">
-        <v>0.02393416461039282</v>
+        <v>0.9386336222326693</v>
       </c>
       <c r="J5">
-        <v>0.02393416461039282</v>
+        <v>0.9386336222326694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.819887681783</v>
+        <v>13.90423533333333</v>
       </c>
       <c r="N5">
-        <v>57.819887681783</v>
+        <v>41.712706</v>
       </c>
       <c r="O5">
-        <v>0.8341067388947159</v>
+        <v>0.1591057696099644</v>
       </c>
       <c r="P5">
-        <v>0.8341067388947159</v>
+        <v>0.1591057696099644</v>
       </c>
       <c r="Q5">
-        <v>24.27610171322632</v>
+        <v>261.8489628051889</v>
       </c>
       <c r="R5">
-        <v>24.27610171322632</v>
+        <v>2356.6406652467</v>
       </c>
       <c r="S5">
-        <v>0.01996364799134407</v>
+        <v>0.1493420248471174</v>
       </c>
       <c r="T5">
-        <v>0.01996364799134407</v>
+        <v>0.1493420248471174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.419857296278956</v>
+        <v>0.589599</v>
       </c>
       <c r="H6">
-        <v>0.419857296278956</v>
+        <v>1.768797</v>
       </c>
       <c r="I6">
-        <v>0.02393416461039282</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="J6">
-        <v>0.02393416461039282</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.96543205822685</v>
+        <v>70.24576333333334</v>
       </c>
       <c r="N6">
-        <v>2.96543205822685</v>
+        <v>210.73729</v>
       </c>
       <c r="O6">
-        <v>0.04277917102009091</v>
+        <v>0.8038202726758664</v>
       </c>
       <c r="P6">
-        <v>0.04277917102009091</v>
+        <v>0.8038202726758664</v>
       </c>
       <c r="Q6">
-        <v>1.245058286266065</v>
+        <v>41.41683181557001</v>
       </c>
       <c r="R6">
-        <v>1.245058286266065</v>
+        <v>372.75148634013</v>
       </c>
       <c r="S6">
-        <v>0.001023883721091002</v>
+        <v>0.02362153151124557</v>
       </c>
       <c r="T6">
-        <v>0.001023883721091002</v>
+        <v>0.02362153151124557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.419857296278956</v>
+        <v>0.589599</v>
       </c>
       <c r="H7">
-        <v>0.419857296278956</v>
+        <v>1.768797</v>
       </c>
       <c r="I7">
-        <v>0.02393416461039282</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="J7">
-        <v>0.02393416461039282</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>8.53421094547625</v>
+        <v>0.152389</v>
       </c>
       <c r="N7">
-        <v>8.53421094547625</v>
+        <v>0.457167</v>
       </c>
       <c r="O7">
-        <v>0.1231140900851932</v>
+        <v>0.001743782994449666</v>
       </c>
       <c r="P7">
-        <v>0.1231140900851932</v>
+        <v>0.001743782994449667</v>
       </c>
       <c r="Q7">
-        <v>3.583150733441931</v>
+        <v>0.089848402011</v>
       </c>
       <c r="R7">
-        <v>3.583150733441931</v>
+        <v>0.808635618099</v>
       </c>
       <c r="S7">
-        <v>0.002946632897957744</v>
+        <v>5.124382446220885E-05</v>
       </c>
       <c r="T7">
-        <v>0.002946632897957744</v>
+        <v>5.124382446220886E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.278926049920265</v>
+        <v>0.589599</v>
       </c>
       <c r="H8">
-        <v>0.278926049920265</v>
+        <v>1.768797</v>
       </c>
       <c r="I8">
-        <v>0.0159003119680997</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="J8">
-        <v>0.0159003119680997</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.819887681783</v>
+        <v>3.0875</v>
       </c>
       <c r="N8">
-        <v>57.819887681783</v>
+        <v>9.262499999999999</v>
       </c>
       <c r="O8">
-        <v>0.8341067388947159</v>
+        <v>0.03533017471971957</v>
       </c>
       <c r="P8">
-        <v>0.8341067388947159</v>
+        <v>0.03533017471971957</v>
       </c>
       <c r="Q8">
-        <v>16.12747287791312</v>
+        <v>1.8203869125</v>
       </c>
       <c r="R8">
-        <v>16.12747287791312</v>
+        <v>16.3834822125</v>
       </c>
       <c r="S8">
-        <v>0.01326255736312027</v>
+        <v>0.001038233127240613</v>
       </c>
       <c r="T8">
-        <v>0.01326255736312027</v>
+        <v>0.001038233127240613</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.278926049920265</v>
+        <v>0.589599</v>
       </c>
       <c r="H9">
-        <v>0.278926049920265</v>
+        <v>1.768797</v>
       </c>
       <c r="I9">
-        <v>0.0159003119680997</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="J9">
-        <v>0.0159003119680997</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.96543205822685</v>
+        <v>13.90423533333333</v>
       </c>
       <c r="N9">
-        <v>2.96543205822685</v>
+        <v>41.712706</v>
       </c>
       <c r="O9">
-        <v>0.04277917102009091</v>
+        <v>0.1591057696099644</v>
       </c>
       <c r="P9">
-        <v>0.04277917102009091</v>
+        <v>0.1591057696099644</v>
       </c>
       <c r="Q9">
-        <v>0.8271362503081364</v>
+        <v>8.197923248298</v>
       </c>
       <c r="R9">
-        <v>0.8271362503081364</v>
+        <v>73.781309234682</v>
       </c>
       <c r="S9">
-        <v>0.0006802021649561356</v>
+        <v>0.00467557497393234</v>
       </c>
       <c r="T9">
-        <v>0.0006802021649561356</v>
+        <v>0.004675574973932341</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1997023333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.5991069999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.00995349259588257</v>
+      </c>
+      <c r="J10">
+        <v>0.009953492595882572</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>70.24576333333334</v>
+      </c>
+      <c r="N10">
+        <v>210.73729</v>
+      </c>
+      <c r="O10">
+        <v>0.8038202726758664</v>
+      </c>
+      <c r="P10">
+        <v>0.8038202726758664</v>
+      </c>
+      <c r="Q10">
+        <v>14.02824284444778</v>
+      </c>
+      <c r="R10">
+        <v>126.25418560003</v>
+      </c>
+      <c r="S10">
+        <v>0.008000819132499545</v>
+      </c>
+      <c r="T10">
+        <v>0.008000819132499547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1997023333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.5991069999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.00995349259588257</v>
+      </c>
+      <c r="J11">
+        <v>0.009953492595882572</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.152389</v>
+      </c>
+      <c r="N11">
+        <v>0.457167</v>
+      </c>
+      <c r="O11">
+        <v>0.001743782994449666</v>
+      </c>
+      <c r="P11">
+        <v>0.001743782994449667</v>
+      </c>
+      <c r="Q11">
+        <v>0.03043243887433333</v>
+      </c>
+      <c r="R11">
+        <v>0.273891949869</v>
+      </c>
+      <c r="S11">
+        <v>1.735673112408069E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.73567311240807E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1997023333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.5991069999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.00995349259588257</v>
+      </c>
+      <c r="J12">
+        <v>0.009953492595882572</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.0875</v>
+      </c>
+      <c r="N12">
+        <v>9.262499999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.03533017471971957</v>
+      </c>
+      <c r="P12">
+        <v>0.03533017471971957</v>
+      </c>
+      <c r="Q12">
+        <v>0.6165809541666666</v>
+      </c>
+      <c r="R12">
+        <v>5.549228587499999</v>
+      </c>
+      <c r="S12">
+        <v>0.0003516586324839663</v>
+      </c>
+      <c r="T12">
+        <v>0.0003516586324839663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1997023333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.5991069999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.00995349259588257</v>
+      </c>
+      <c r="J13">
+        <v>0.009953492595882572</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.90423533333333</v>
+      </c>
+      <c r="N13">
+        <v>41.712706</v>
+      </c>
+      <c r="O13">
+        <v>0.1591057696099644</v>
+      </c>
+      <c r="P13">
+        <v>0.1591057696099644</v>
+      </c>
+      <c r="Q13">
+        <v>2.776708239282444</v>
+      </c>
+      <c r="R13">
+        <v>24.990374153542</v>
+      </c>
+      <c r="S13">
+        <v>0.001583658099774978</v>
+      </c>
+      <c r="T13">
+        <v>0.001583658099774979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4419256666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.325777</v>
+      </c>
+      <c r="I14">
+        <v>0.02202630173456729</v>
+      </c>
+      <c r="J14">
+        <v>0.0220263017345673</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>70.24576333333334</v>
+      </c>
+      <c r="N14">
+        <v>210.73729</v>
+      </c>
+      <c r="O14">
+        <v>0.8038202726758664</v>
+      </c>
+      <c r="P14">
+        <v>0.8038202726758664</v>
+      </c>
+      <c r="Q14">
+        <v>31.04340579159222</v>
+      </c>
+      <c r="R14">
+        <v>279.39065212433</v>
+      </c>
+      <c r="S14">
+        <v>0.01770518786632079</v>
+      </c>
+      <c r="T14">
+        <v>0.01770518786632079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4419256666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.325777</v>
+      </c>
+      <c r="I15">
+        <v>0.02202630173456729</v>
+      </c>
+      <c r="J15">
+        <v>0.0220263017345673</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.152389</v>
+      </c>
+      <c r="N15">
+        <v>0.457167</v>
+      </c>
+      <c r="O15">
+        <v>0.001743782994449666</v>
+      </c>
+      <c r="P15">
+        <v>0.001743782994449667</v>
+      </c>
+      <c r="Q15">
+        <v>0.06734461041766666</v>
+      </c>
+      <c r="R15">
+        <v>0.606101493759</v>
+      </c>
+      <c r="S15">
+        <v>3.840909039535564E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.840909039535565E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.278926049920265</v>
-      </c>
-      <c r="H10">
-        <v>0.278926049920265</v>
-      </c>
-      <c r="I10">
-        <v>0.0159003119680997</v>
-      </c>
-      <c r="J10">
-        <v>0.0159003119680997</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>8.53421094547625</v>
-      </c>
-      <c r="N10">
-        <v>8.53421094547625</v>
-      </c>
-      <c r="O10">
-        <v>0.1231140900851932</v>
-      </c>
-      <c r="P10">
-        <v>0.1231140900851932</v>
-      </c>
-      <c r="Q10">
-        <v>2.38041374820798</v>
-      </c>
-      <c r="R10">
-        <v>2.38041374820798</v>
-      </c>
-      <c r="S10">
-        <v>0.001957552440023303</v>
-      </c>
-      <c r="T10">
-        <v>0.001957552440023303</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4419256666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.325777</v>
+      </c>
+      <c r="I16">
+        <v>0.02202630173456729</v>
+      </c>
+      <c r="J16">
+        <v>0.0220263017345673</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.0875</v>
+      </c>
+      <c r="N16">
+        <v>9.262499999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.03533017471971957</v>
+      </c>
+      <c r="P16">
+        <v>0.03533017471971957</v>
+      </c>
+      <c r="Q16">
+        <v>1.364445495833333</v>
+      </c>
+      <c r="R16">
+        <v>12.2800094625</v>
+      </c>
+      <c r="S16">
+        <v>0.0007781930887115247</v>
+      </c>
+      <c r="T16">
+        <v>0.0007781930887115248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4419256666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.325777</v>
+      </c>
+      <c r="I17">
+        <v>0.02202630173456729</v>
+      </c>
+      <c r="J17">
+        <v>0.0220263017345673</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.90423533333333</v>
+      </c>
+      <c r="N17">
+        <v>41.712706</v>
+      </c>
+      <c r="O17">
+        <v>0.1591057696099644</v>
+      </c>
+      <c r="P17">
+        <v>0.1591057696099644</v>
+      </c>
+      <c r="Q17">
+        <v>6.144638469173556</v>
+      </c>
+      <c r="R17">
+        <v>55.301746222562</v>
+      </c>
+      <c r="S17">
+        <v>0.003504511689139622</v>
+      </c>
+      <c r="T17">
+        <v>0.003504511689139623</v>
       </c>
     </row>
   </sheetData>
